--- a/Test Case/Preethi/Test Case- In Patient.xlsx
+++ b/Test Case/Preethi/Test Case- In Patient.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Care Desk" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="512">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1206,12 +1207,6 @@
     <t xml:space="preserve">Select "In Patient List" tab </t>
   </si>
   <si>
-    <t>Patient detail pop up should be displayed</t>
-  </si>
-  <si>
-    <t>Select Pin on top of pop up window</t>
-  </si>
-  <si>
     <t>Select "Add Remark" button</t>
   </si>
   <si>
@@ -1222,13 +1217,477 @@
   </si>
   <si>
     <t>Data saved message should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_055</t>
+  </si>
+  <si>
+    <t>Verify "Patient Information" in Patient Detail pop up is correctly displaying</t>
+  </si>
+  <si>
+    <t>Patient detail pop up should be displayed with following Menus:
+1) Service Entry
+2) Bed Allocation
+3) Bed Shifting
+4) Bed Release
+5) Transfer Request</t>
+  </si>
+  <si>
+    <t>Select Pin on top right of pop up window</t>
+  </si>
+  <si>
+    <t>Expands the right side pane with Patient id,photo, Add Remarks, Medical Records, Allergy details etc</t>
+  </si>
+  <si>
+    <t>Select Patient Information Icon</t>
+  </si>
+  <si>
+    <t>Patient Information slip showing, Patient details and Insurance details should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_056</t>
+  </si>
+  <si>
+    <t>Verify "Print" in "Patient Information" in Patient Detail pop up working correctly</t>
+  </si>
+  <si>
+    <t>Select "Print" option on top of the pop up view</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_057</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_011</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_058</t>
+  </si>
+  <si>
+    <t>"In Patient List" pop up window should be displayed having following fields to enter and search:
+1) Admission Date From
+2) Admission Date to
+3) Address
+4) Nursing Station
+5) Patient Number
+6) Salutation
+7) Doctor
+8) Patient Name
+9) Patient Type
+10) Region
+11) Mobile
+12) Speciality
+13) Organisation</t>
+  </si>
+  <si>
+    <t>Verify "Patient wise" search in "Menu" is working correctly</t>
+  </si>
+  <si>
+    <t>Select Menu&gt;&gt;Query&gt;&gt;Patientwise Search</t>
+  </si>
+  <si>
+    <t>Enter search keyword in Searching field textbox</t>
+  </si>
+  <si>
+    <t>Enter "Search Patient" Button</t>
+  </si>
+  <si>
+    <t>Searched IP Patient list should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_059</t>
+  </si>
+  <si>
+    <t>Verify "Export to Excel" in Patient wise "Search" is working  correctly</t>
+  </si>
+  <si>
+    <t>Select "Export to Excel" button on bottom of the pop up view</t>
+  </si>
+  <si>
+    <t>IP Patient list with the displayed fields should be expoted in an Excel</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_060</t>
+  </si>
+  <si>
+    <t>Verify "Change column Visibility" should be displayed</t>
+  </si>
+  <si>
+    <t>Select "Change Column Visibility" button on bottom of the page</t>
+  </si>
+  <si>
+    <t>"Select Display Fields" pop up window is displayed with Field names along with a checkbox</t>
+  </si>
+  <si>
+    <t>Select check box corresponding to the fields to be displayed</t>
+  </si>
+  <si>
+    <t>Select OK Button</t>
+  </si>
+  <si>
+    <t>Requiested field of the IP Patients should be displayed in the list</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_061</t>
+  </si>
+  <si>
+    <t>Verify "Save" in Procategory Head" in Utilities is working correctly</t>
+  </si>
+  <si>
+    <t>Select Menu&gt;&gt;Utilities&gt;&gt;Procategory Head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Procategory Head" pop up window should be displayed with fields to enter Procedure Category </t>
+  </si>
+  <si>
+    <t>Header name, Order number and select Procedure Category and select tick mark at the end of each procedure enty</t>
+  </si>
+  <si>
+    <t>"Data Saved Successfully" message should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_062</t>
+  </si>
+  <si>
+    <t>Verify "Search" in Procategory Head" in Utilities is working correctly</t>
+  </si>
+  <si>
+    <t>Select "Search" button on bottom of the pop up view</t>
+  </si>
+  <si>
+    <t>Enter the required field to check in the Search box on top of the pop up view</t>
+  </si>
+  <si>
+    <t>Header name pop up window  should be displayed with Header name and order number list and a Search box</t>
+  </si>
+  <si>
+    <t>Required list will be filtered from the entire list and should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_063</t>
+  </si>
+  <si>
+    <t>Verify Edit and Delete is working correctly in "Procategory Head" in Utilities</t>
+  </si>
+  <si>
+    <t>Select any on from the list</t>
+  </si>
+  <si>
+    <t>Selected Headre name's Procedure Category should be in editable format</t>
+  </si>
+  <si>
+    <t>Select "Edit Item" Button</t>
+  </si>
+  <si>
+    <t>Edit Name and select Tick mark</t>
+  </si>
+  <si>
+    <t>Select "Delete Item" button</t>
+  </si>
+  <si>
+    <t>Data Edited successfully message should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_064</t>
+  </si>
+  <si>
+    <t>Select Menu&gt;&gt;Utilities&gt;&gt;Approximate Calculation</t>
+  </si>
+  <si>
+    <t>Approximate calculation pop up window should be displayed with Searchoption and list of IP Patients should be displayed</t>
+  </si>
+  <si>
+    <t>Enter Id/Name/Nursing Station or its combinamtion</t>
+  </si>
+  <si>
+    <t>Select "Search" Button</t>
+  </si>
+  <si>
+    <t>Selected IP Patient should be displayed from the list</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_065</t>
+  </si>
+  <si>
+    <t>Verify "Search" in "Approximate Calculation" is working correctly"</t>
+  </si>
+  <si>
+    <t>From the list of Patients, select any one patient and check Checkbox corresponding to that Patient</t>
+  </si>
+  <si>
+    <t>Select "Process" button</t>
+  </si>
+  <si>
+    <t>Selected patiets total amount and Advance should be displayed</t>
+  </si>
+  <si>
+    <t>Select F2 Key</t>
+  </si>
+  <si>
+    <t>Displays Room Rent details in a pop up view</t>
+  </si>
+  <si>
+    <t>Select F3 Key</t>
+  </si>
+  <si>
+    <t>Displays Service details in a pop up view</t>
+  </si>
+  <si>
+    <t>Select F4 Key</t>
+  </si>
+  <si>
+    <t>Displays Visit details in a pop up view</t>
+  </si>
+  <si>
+    <t>Select F5 Key</t>
+  </si>
+  <si>
+    <t>Displays Surgery details in a pop up view</t>
+  </si>
+  <si>
+    <t>Select F6 Key</t>
+  </si>
+  <si>
+    <t>Displays Advance details in a pop up view</t>
+  </si>
+  <si>
+    <t>Select F7 Key</t>
+  </si>
+  <si>
+    <t>Displays Pharmacy details in a pop up view</t>
+  </si>
+  <si>
+    <t>Select F8 Key</t>
+  </si>
+  <si>
+    <t>Displays Lab details in a pop up view</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_066</t>
+  </si>
+  <si>
+    <t>Verify "Process"  in "Approximate Calculation" is working correctly</t>
+  </si>
+  <si>
+    <t>Verify "Print"  in "Approximate Calculation" is working correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select "Print" option </t>
+  </si>
+  <si>
+    <t>A pop up is displayed with 3 options:
+1) Summary Print
+2) Detailed Print (Bill wise)
+3) Detailed Print(Item Wise)</t>
+  </si>
+  <si>
+    <t>Select any one print</t>
+  </si>
+  <si>
+    <t>Corresponfing Print Preview should be generated</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>Change IP counter</t>
+  </si>
+  <si>
+    <t>Bed Occupancy Rate</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_067</t>
+  </si>
+  <si>
+    <t>Select Application Selector&gt;&gt;In Patient</t>
+  </si>
+  <si>
+    <t>Select In-Patient List tab</t>
+  </si>
+  <si>
+    <t>IP Patient list should be displayed</t>
+  </si>
+  <si>
+    <t>Verify "Patient Details pop up" is displaying in "In Patient List" tab is displaying correctly</t>
+  </si>
+  <si>
+    <t>Mouse over on Patient Name in the list</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pop up of Patient details should be displayed with following details:
+Patient Name, Id,Photo,Gender,Age,DOB,Phone number and links to
+Patient Information
+Lab Result
+Radiology Result
+Patient Log
+Letters and Certificated
+Patient Files
+Treatment Summary
+External Treatment Summary
+Patient Message
+</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_068</t>
+  </si>
+  <si>
+    <t>Select "Patient Information" button</t>
+  </si>
+  <si>
+    <t>Patient information slip should be displayed</t>
+  </si>
+  <si>
+    <t>Select "Print" on top of pop up view</t>
+  </si>
+  <si>
+    <t>Print Preview of "Patient Information" should be displayed</t>
+  </si>
+  <si>
+    <t>Verify Print in "Patient Information" in In Patient list is working correctly</t>
+  </si>
+  <si>
+    <t>Verify "Patient log details" in "In Patient list" tab is working correctly</t>
+  </si>
+  <si>
+    <t>Select "Patient log" icon</t>
+  </si>
+  <si>
+    <t>Patient log details of all visit should be displayed in a pop up view</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_069</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_070</t>
+  </si>
+  <si>
+    <t>Verify "Patient Files" in "In Patient list" tab is working correctly</t>
+  </si>
+  <si>
+    <t>Select "Patient Files" icon</t>
+  </si>
+  <si>
+    <t>A pop up window is displayed to upload patient related files like lab results, Radiology result etc</t>
+  </si>
+  <si>
+    <t>Select "Click to attach new file option"</t>
+  </si>
+  <si>
+    <t>A pop up window shoild be displayed to select the file from the location</t>
+  </si>
+  <si>
+    <t>Attached file should be displayed in a table view</t>
+  </si>
+  <si>
+    <t>Select a file to attach</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_071</t>
+  </si>
+  <si>
+    <t>Verify "Treatment Summary" in "In Patient tab" is working correctly</t>
+  </si>
+  <si>
+    <t>Select "Treatment Summary" icon</t>
+  </si>
+  <si>
+    <t>A pop up window should be displayed showing the Trearment details of the selected Patient should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_072</t>
+  </si>
+  <si>
+    <t>Verify "External Treatment Summary" in "In Patient" tab is working correctly</t>
+  </si>
+  <si>
+    <t>Select "External Treatment Summary" icon</t>
+  </si>
+  <si>
+    <t>A pop up window displaying the External Treatment details should be displayed</t>
+  </si>
+  <si>
+    <t>Verify "Pateint Message" in "In Patient" tab is working correctly</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_073</t>
+  </si>
+  <si>
+    <t>A pop up window should be displayed to enter message</t>
+  </si>
+  <si>
+    <t>Enter message and select send option</t>
+  </si>
+  <si>
+    <t>Message send successfully</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_074</t>
+  </si>
+  <si>
+    <t>Verify "Radiology Results" in "In Patient" tab is working correctly</t>
+  </si>
+  <si>
+    <t>Select "Patient Message" icon</t>
+  </si>
+  <si>
+    <t>Select "Radiology Result" icon</t>
+  </si>
+  <si>
+    <t>A pop up window should be displayed to view the Radiology result of the seleted Patient</t>
+  </si>
+  <si>
+    <t>Verify "Lab Result" in "In Patient" tab is working correctly</t>
+  </si>
+  <si>
+    <t>Select "Lab Results" icon</t>
+  </si>
+  <si>
+    <t>A pop up window is displayed showing the lab result should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_075</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_076</t>
+  </si>
+  <si>
+    <t>Verify "Prnt" in "Lab Result" in "In Patient" tab is working correctly</t>
+  </si>
+  <si>
+    <t>Select "Lab Results"</t>
+  </si>
+  <si>
+    <t>A pop up window showing the Lab results should be displayed</t>
+  </si>
+  <si>
+    <t>Select Print option on top of the pop up view</t>
+  </si>
+  <si>
+    <t>Print Preview of the pop up view should be displayed</t>
+  </si>
+  <si>
+    <t>MED_IP_TC_077</t>
+  </si>
+  <si>
+    <t>Verify "Print" in "Treatment Summary" in "In Patient" tab is working correctly</t>
+  </si>
+  <si>
+    <t>Select "Treatment Summary" from the icon</t>
+  </si>
+  <si>
+    <t>A pop up view displaying the Treatment summary should be displayed</t>
+  </si>
+  <si>
+    <t>Select "Print" option on top of Treatment Summary</t>
+  </si>
+  <si>
+    <t>A Preview of print should be generated</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1272,11 +1731,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1284,21 +1750,21 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1363,17 +1829,17 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1385,13 +1851,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1400,22 +1866,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1424,50 +1890,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1477,8 +1946,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1752,11 +2225,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R414"/>
+  <dimension ref="A1:R588"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A396" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D400" sqref="D400"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A198" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A210" sqref="A210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1812,14 +2285,14 @@
       <c r="L1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="34" t="s">
+      <c r="N1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="34"/>
-      <c r="Q1" s="35" t="s">
+      <c r="O1" s="35"/>
+      <c r="Q1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="35"/>
+      <c r="R1" s="36"/>
     </row>
     <row r="2" spans="1:18" s="2" customFormat="1" ht="35.25" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -1831,7 +2304,7 @@
       <c r="C2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>222</v>
       </c>
       <c r="E2" s="5"/>
@@ -1849,7 +2322,7 @@
       </c>
       <c r="O2" s="16">
         <f>COUNTA(A:A)-1</f>
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="17" t="s">
         <v>15</v>
@@ -1863,7 +2336,7 @@
       <c r="A3" s="20"/>
       <c r="B3" s="9"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="32"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="5">
         <v>1</v>
       </c>
@@ -1871,7 +2344,7 @@
         <v>100</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="32" t="s">
         <v>223</v>
       </c>
       <c r="I3" s="13"/>
@@ -1887,7 +2360,7 @@
       <c r="A4" s="20"/>
       <c r="B4" s="9"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="32"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="5">
         <v>2</v>
       </c>
@@ -1996,7 +2469,7 @@
       <c r="A10" s="20"/>
       <c r="B10" s="9"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="31"/>
       <c r="E10" s="5">
         <v>1</v>
       </c>
@@ -2004,7 +2477,7 @@
         <v>100</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="32" t="s">
         <v>223</v>
       </c>
       <c r="I10" s="13"/>
@@ -2020,7 +2493,7 @@
       <c r="A11" s="20"/>
       <c r="B11" s="9"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="31"/>
       <c r="E11" s="5">
         <v>2</v>
       </c>
@@ -2122,7 +2595,7 @@
       <c r="F18" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="32" t="s">
         <v>223</v>
       </c>
       <c r="J18" s="14"/>
@@ -2196,7 +2669,7 @@
       <c r="F24" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="32" t="s">
         <v>223</v>
       </c>
       <c r="J24" s="14"/>
@@ -2268,7 +2741,7 @@
       <c r="F30" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="32" t="s">
         <v>223</v>
       </c>
       <c r="J30" s="14"/>
@@ -2418,7 +2891,7 @@
       <c r="F42" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H42" s="32" t="s">
         <v>223</v>
       </c>
       <c r="J42" s="14"/>
@@ -2527,7 +3000,7 @@
       <c r="F51" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="H51" s="33" t="s">
+      <c r="H51" s="32" t="s">
         <v>223</v>
       </c>
       <c r="J51" s="14"/>
@@ -2599,7 +3072,7 @@
       <c r="F57" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="H57" s="33" t="s">
+      <c r="H57" s="32" t="s">
         <v>223</v>
       </c>
       <c r="J57" s="14"/>
@@ -2694,7 +3167,7 @@
       <c r="F65" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="H65" s="33" t="s">
+      <c r="H65" s="32" t="s">
         <v>223</v>
       </c>
       <c r="J65" s="14"/>
@@ -2763,7 +3236,7 @@
       <c r="F71" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="H71" s="33" t="s">
+      <c r="H71" s="32" t="s">
         <v>223</v>
       </c>
       <c r="K71" s="14"/>
@@ -2829,8 +3302,8 @@
       <c r="K77" s="14"/>
     </row>
     <row r="78" spans="1:11" ht="30">
-      <c r="A78" s="30" t="s">
-        <v>119</v>
+      <c r="A78" s="37" t="s">
+        <v>379</v>
       </c>
       <c r="B78" s="26" t="s">
         <v>20</v>
@@ -2913,8 +3386,8 @@
       <c r="K85" s="14"/>
     </row>
     <row r="86" spans="1:11" ht="30">
-      <c r="A86" s="30" t="s">
-        <v>120</v>
+      <c r="A86" s="37" t="s">
+        <v>119</v>
       </c>
       <c r="B86" s="26" t="s">
         <v>20</v>
@@ -3021,8 +3494,8 @@
       <c r="K95" s="14"/>
     </row>
     <row r="96" spans="1:11" ht="30">
-      <c r="A96" s="30" t="s">
-        <v>121</v>
+      <c r="A96" s="37" t="s">
+        <v>120</v>
       </c>
       <c r="B96" s="26" t="s">
         <v>20</v>
@@ -3093,8 +3566,8 @@
       <c r="K102" s="14"/>
     </row>
     <row r="103" spans="1:11" ht="30">
-      <c r="A103" s="30" t="s">
-        <v>127</v>
+      <c r="A103" s="37" t="s">
+        <v>121</v>
       </c>
       <c r="B103" s="26" t="s">
         <v>20</v>
@@ -3189,8 +3662,8 @@
       <c r="K111" s="14"/>
     </row>
     <row r="112" spans="1:11" ht="30">
-      <c r="A112" s="30" t="s">
-        <v>134</v>
+      <c r="A112" s="37" t="s">
+        <v>127</v>
       </c>
       <c r="B112" s="26" t="s">
         <v>20</v>
@@ -3276,8 +3749,8 @@
       </c>
     </row>
     <row r="121" spans="1:11" ht="30">
-      <c r="A121" s="30" t="s">
-        <v>139</v>
+      <c r="A121" s="37" t="s">
+        <v>134</v>
       </c>
       <c r="B121" s="26" t="s">
         <v>20</v>
@@ -3380,8 +3853,8 @@
       </c>
     </row>
     <row r="132" spans="1:7" ht="30">
-      <c r="A132" s="30" t="s">
-        <v>146</v>
+      <c r="A132" s="37" t="s">
+        <v>139</v>
       </c>
       <c r="B132" s="26" t="s">
         <v>20</v>
@@ -3432,8 +3905,8 @@
       </c>
     </row>
     <row r="138" spans="1:7" ht="30">
-      <c r="A138" s="30" t="s">
-        <v>151</v>
+      <c r="A138" s="37" t="s">
+        <v>146</v>
       </c>
       <c r="B138" s="26" t="s">
         <v>20</v>
@@ -3506,8 +3979,8 @@
       </c>
     </row>
     <row r="146" spans="1:7" ht="30">
-      <c r="A146" s="30" t="s">
-        <v>160</v>
+      <c r="A146" s="37" t="s">
+        <v>151</v>
       </c>
       <c r="B146" s="26" t="s">
         <v>20</v>
@@ -3558,8 +4031,8 @@
       </c>
     </row>
     <row r="152" spans="1:7" ht="30">
-      <c r="A152" s="30" t="s">
-        <v>167</v>
+      <c r="A152" s="37" t="s">
+        <v>160</v>
       </c>
       <c r="B152" s="26" t="s">
         <v>20</v>
@@ -3632,8 +4105,8 @@
       </c>
     </row>
     <row r="160" spans="1:7" ht="30">
-      <c r="A160" s="30" t="s">
-        <v>179</v>
+      <c r="A160" s="37" t="s">
+        <v>167</v>
       </c>
       <c r="B160" s="26" t="s">
         <v>20</v>
@@ -3717,8 +4190,8 @@
       </c>
     </row>
     <row r="169" spans="1:7" ht="30">
-      <c r="A169" s="30" t="s">
-        <v>181</v>
+      <c r="A169" s="37" t="s">
+        <v>179</v>
       </c>
       <c r="B169" s="26" t="s">
         <v>20</v>
@@ -3802,8 +4275,8 @@
       </c>
     </row>
     <row r="178" spans="1:7" ht="30">
-      <c r="A178" s="30" t="s">
-        <v>186</v>
+      <c r="A178" s="37" t="s">
+        <v>181</v>
       </c>
       <c r="B178" s="26" t="s">
         <v>20</v>
@@ -3854,8 +4327,8 @@
       </c>
     </row>
     <row r="184" spans="1:7" ht="30">
-      <c r="A184" s="30" t="s">
-        <v>193</v>
+      <c r="A184" s="37" t="s">
+        <v>186</v>
       </c>
       <c r="B184" s="26" t="s">
         <v>20</v>
@@ -3917,8 +4390,8 @@
       </c>
     </row>
     <row r="191" spans="1:7" ht="30">
-      <c r="A191" s="30" t="s">
-        <v>199</v>
+      <c r="A191" s="37" t="s">
+        <v>193</v>
       </c>
       <c r="B191" s="26" t="s">
         <v>20</v>
@@ -3991,8 +4464,8 @@
       </c>
     </row>
     <row r="199" spans="1:7" ht="30">
-      <c r="A199" s="30" t="s">
-        <v>203</v>
+      <c r="A199" s="37" t="s">
+        <v>199</v>
       </c>
       <c r="B199" s="26" t="s">
         <v>20</v>
@@ -4043,8 +4516,8 @@
       </c>
     </row>
     <row r="205" spans="1:7" ht="30">
-      <c r="A205" s="30" t="s">
-        <v>210</v>
+      <c r="A205" s="37" t="s">
+        <v>203</v>
       </c>
       <c r="B205" s="26" t="s">
         <v>20</v>
@@ -4106,8 +4579,8 @@
       </c>
     </row>
     <row r="212" spans="1:7" ht="30">
-      <c r="A212" s="30" t="s">
-        <v>212</v>
+      <c r="A212" s="37" t="s">
+        <v>210</v>
       </c>
       <c r="B212" s="26" t="s">
         <v>20</v>
@@ -4180,8 +4653,8 @@
       </c>
     </row>
     <row r="220" spans="1:7" ht="45">
-      <c r="A220" s="31" t="s">
-        <v>221</v>
+      <c r="A220" s="37" t="s">
+        <v>212</v>
       </c>
       <c r="B220" s="26" t="s">
         <v>20</v>
@@ -4232,8 +4705,8 @@
       </c>
     </row>
     <row r="226" spans="1:8" ht="30">
-      <c r="A226" s="31" t="s">
-        <v>229</v>
+      <c r="A226" s="37" t="s">
+        <v>221</v>
       </c>
       <c r="B226" s="26" t="s">
         <v>20</v>
@@ -4252,7 +4725,7 @@
       <c r="F227" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H227" s="33" t="s">
+      <c r="H227" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4295,8 +4768,8 @@
       </c>
     </row>
     <row r="233" spans="1:8" ht="45">
-      <c r="A233" s="31" t="s">
-        <v>232</v>
+      <c r="A233" s="37" t="s">
+        <v>229</v>
       </c>
       <c r="B233" s="26" t="s">
         <v>20</v>
@@ -4315,7 +4788,7 @@
       <c r="F234" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H234" s="33" t="s">
+      <c r="H234" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4339,16 +4812,16 @@
       </c>
     </row>
     <row r="238" spans="1:8" ht="30">
-      <c r="A238" s="31" t="s">
-        <v>237</v>
+      <c r="A238" s="37" t="s">
+        <v>232</v>
       </c>
       <c r="B238" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D238" s="32" t="s">
+      <c r="D238" s="31" t="s">
         <v>238</v>
       </c>
-      <c r="F238" s="32" t="s">
+      <c r="F238" s="31" t="s">
         <v>239</v>
       </c>
     </row>
@@ -4359,7 +4832,7 @@
       <c r="F239" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H239" s="33" t="s">
+      <c r="H239" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4375,7 +4848,7 @@
       <c r="E241" s="5">
         <v>3</v>
       </c>
-      <c r="F241" s="32" t="s">
+      <c r="F241" s="31" t="s">
         <v>246</v>
       </c>
     </row>
@@ -4383,10 +4856,10 @@
       <c r="E242" s="5">
         <v>4</v>
       </c>
-      <c r="F242" s="32" t="s">
+      <c r="F242" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="G242" s="32" t="s">
+      <c r="G242" s="31" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4394,24 +4867,24 @@
       <c r="E243" s="5">
         <v>5</v>
       </c>
-      <c r="F243" s="32" t="s">
+      <c r="F243" s="31" t="s">
         <v>242</v>
       </c>
-      <c r="G243" s="32" t="s">
+      <c r="G243" s="31" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="245" spans="1:8" ht="30">
-      <c r="A245" s="31" t="s">
-        <v>244</v>
+      <c r="A245" s="37" t="s">
+        <v>237</v>
       </c>
       <c r="B245" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D245" s="32" t="s">
+      <c r="D245" s="31" t="s">
         <v>245</v>
       </c>
-      <c r="F245" s="32" t="s">
+      <c r="F245" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4423,7 +4896,7 @@
       <c r="F246" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H246" s="33" t="s">
+      <c r="H246" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4439,10 +4912,10 @@
       <c r="E248" s="5">
         <v>3</v>
       </c>
-      <c r="F248" s="32" t="s">
+      <c r="F248" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G248" s="32" t="s">
+      <c r="G248" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4450,24 +4923,24 @@
       <c r="E249" s="5">
         <v>4</v>
       </c>
-      <c r="F249" s="32" t="s">
+      <c r="F249" s="31" t="s">
         <v>248</v>
       </c>
-      <c r="G249" s="32" t="s">
+      <c r="G249" s="31" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="251" spans="1:8" ht="30">
-      <c r="A251" s="31" t="s">
-        <v>255</v>
+      <c r="A251" s="37" t="s">
+        <v>244</v>
       </c>
       <c r="B251" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D251" s="32" t="s">
+      <c r="D251" s="31" t="s">
         <v>250</v>
       </c>
-      <c r="F251" s="32" t="s">
+      <c r="F251" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4478,7 +4951,7 @@
       <c r="F252" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H252" s="33" t="s">
+      <c r="H252" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4494,10 +4967,10 @@
       <c r="E254" s="5">
         <v>3</v>
       </c>
-      <c r="F254" s="32" t="s">
+      <c r="F254" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G254" s="32" t="s">
+      <c r="G254" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4505,10 +4978,10 @@
       <c r="E255" s="5">
         <v>4</v>
       </c>
-      <c r="F255" s="32" t="s">
+      <c r="F255" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="G255" s="32" t="s">
+      <c r="G255" s="31" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4516,7 +4989,7 @@
       <c r="E256" s="5">
         <v>5</v>
       </c>
-      <c r="F256" s="32" t="s">
+      <c r="F256" s="31" t="s">
         <v>253</v>
       </c>
     </row>
@@ -4524,24 +4997,24 @@
       <c r="E257" s="5">
         <v>6</v>
       </c>
-      <c r="F257" s="32" t="s">
+      <c r="F257" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="G257" s="32" t="s">
+      <c r="G257" s="31" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="259" spans="1:8" ht="30">
-      <c r="A259" s="31" t="s">
+      <c r="A259" s="30" t="s">
         <v>255</v>
       </c>
       <c r="B259" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D259" s="32" t="s">
+      <c r="D259" s="31" t="s">
         <v>256</v>
       </c>
-      <c r="F259" s="32" t="s">
+      <c r="F259" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4552,7 +5025,7 @@
       <c r="F260" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H260" s="33" t="s">
+      <c r="H260" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4568,10 +5041,10 @@
       <c r="E262" s="5">
         <v>3</v>
       </c>
-      <c r="F262" s="32" t="s">
+      <c r="F262" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G262" s="32" t="s">
+      <c r="G262" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4579,10 +5052,10 @@
       <c r="E263" s="5">
         <v>4</v>
       </c>
-      <c r="F263" s="32" t="s">
+      <c r="F263" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="G263" s="32" t="s">
+      <c r="G263" s="31" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4642,7 +5115,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" ht="30">
-      <c r="A270" s="36" t="s">
+      <c r="A270" s="33" t="s">
         <v>266</v>
       </c>
       <c r="B270" s="26" t="s">
@@ -4651,7 +5124,7 @@
       <c r="D270" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="F270" s="32" t="s">
+      <c r="F270" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4662,7 +5135,7 @@
       <c r="F271" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H271" s="33" t="s">
+      <c r="H271" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4678,10 +5151,10 @@
       <c r="E273" s="5">
         <v>3</v>
       </c>
-      <c r="F273" s="32" t="s">
+      <c r="F273" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G273" s="32" t="s">
+      <c r="G273" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4689,10 +5162,10 @@
       <c r="E274" s="5">
         <v>4</v>
       </c>
-      <c r="F274" s="32" t="s">
+      <c r="F274" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="G274" s="32" t="s">
+      <c r="G274" s="31" t="s">
         <v>252</v>
       </c>
     </row>
@@ -4708,7 +5181,7 @@
       </c>
     </row>
     <row r="277" spans="1:8" ht="30">
-      <c r="A277" s="36" t="s">
+      <c r="A277" s="33" t="s">
         <v>269</v>
       </c>
       <c r="B277" s="26" t="s">
@@ -4717,7 +5190,7 @@
       <c r="D277" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="F277" s="32" t="s">
+      <c r="F277" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4728,7 +5201,7 @@
       <c r="F278" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H278" s="33" t="s">
+      <c r="H278" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4744,10 +5217,10 @@
       <c r="E280" s="5">
         <v>3</v>
       </c>
-      <c r="F280" s="32" t="s">
+      <c r="F280" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G280" s="32" t="s">
+      <c r="G280" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4782,7 +5255,7 @@
       </c>
     </row>
     <row r="285" spans="1:8" ht="30">
-      <c r="A285" s="36" t="s">
+      <c r="A285" s="33" t="s">
         <v>275</v>
       </c>
       <c r="B285" s="26" t="s">
@@ -4791,7 +5264,7 @@
       <c r="D285" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="F285" s="32" t="s">
+      <c r="F285" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4802,7 +5275,7 @@
       <c r="F286" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H286" s="33" t="s">
+      <c r="H286" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4818,10 +5291,10 @@
       <c r="E288" s="5">
         <v>3</v>
       </c>
-      <c r="F288" s="32" t="s">
+      <c r="F288" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G288" s="32" t="s">
+      <c r="G288" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4837,7 +5310,7 @@
       </c>
     </row>
     <row r="291" spans="1:8" ht="30">
-      <c r="A291" s="36" t="s">
+      <c r="A291" s="33" t="s">
         <v>278</v>
       </c>
       <c r="B291" s="26" t="s">
@@ -4846,7 +5319,7 @@
       <c r="D291" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="F291" s="32" t="s">
+      <c r="F291" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4857,7 +5330,7 @@
       <c r="F292" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H292" s="33" t="s">
+      <c r="H292" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4873,10 +5346,10 @@
       <c r="E294" s="5">
         <v>3</v>
       </c>
-      <c r="F294" s="32" t="s">
+      <c r="F294" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G294" s="32" t="s">
+      <c r="G294" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4892,7 +5365,7 @@
       </c>
     </row>
     <row r="296" spans="1:8" ht="30">
-      <c r="A296" s="36" t="s">
+      <c r="A296" s="33" t="s">
         <v>282</v>
       </c>
       <c r="B296" s="26" t="s">
@@ -4901,7 +5374,7 @@
       <c r="D296" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="F296" s="32" t="s">
+      <c r="F296" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4912,7 +5385,7 @@
       <c r="F297" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H297" s="33" t="s">
+      <c r="H297" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4928,10 +5401,10 @@
       <c r="E299" s="5">
         <v>3</v>
       </c>
-      <c r="F299" s="32" t="s">
+      <c r="F299" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G299" s="32" t="s">
+      <c r="G299" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -4982,7 +5455,7 @@
       </c>
     </row>
     <row r="306" spans="1:8" ht="30">
-      <c r="A306" s="36" t="s">
+      <c r="A306" s="33" t="s">
         <v>290</v>
       </c>
       <c r="B306" s="26" t="s">
@@ -4996,7 +5469,7 @@
       </c>
     </row>
     <row r="307" spans="1:8">
-      <c r="F307" s="32" t="s">
+      <c r="F307" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5007,7 +5480,7 @@
       <c r="F308" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H308" s="33" t="s">
+      <c r="H308" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5023,10 +5496,10 @@
       <c r="E310" s="5">
         <v>3</v>
       </c>
-      <c r="F310" s="32" t="s">
+      <c r="F310" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G310" s="32" t="s">
+      <c r="G310" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5053,7 +5526,7 @@
       </c>
     </row>
     <row r="314" spans="1:8" ht="30">
-      <c r="A314" s="36" t="s">
+      <c r="A314" s="33" t="s">
         <v>295</v>
       </c>
       <c r="B314" s="26" t="s">
@@ -5062,7 +5535,7 @@
       <c r="D314" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="F314" s="32" t="s">
+      <c r="F314" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5073,7 +5546,7 @@
       <c r="F315" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H315" s="33" t="s">
+      <c r="H315" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5089,10 +5562,10 @@
       <c r="E317" s="5">
         <v>3</v>
       </c>
-      <c r="F317" s="32" t="s">
+      <c r="F317" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G317" s="32" t="s">
+      <c r="G317" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5135,7 +5608,7 @@
       </c>
     </row>
     <row r="323" spans="1:8" ht="30">
-      <c r="A323" s="36" t="s">
+      <c r="A323" s="33" t="s">
         <v>300</v>
       </c>
       <c r="B323" s="26" t="s">
@@ -5144,7 +5617,7 @@
       <c r="D323" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F323" s="32" t="s">
+      <c r="F323" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5155,7 +5628,7 @@
       <c r="F324" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H324" s="33" t="s">
+      <c r="H324" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5171,10 +5644,10 @@
       <c r="E326" s="5">
         <v>3</v>
       </c>
-      <c r="F326" s="32" t="s">
+      <c r="F326" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G326" s="32" t="s">
+      <c r="G326" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5220,7 +5693,7 @@
       </c>
     </row>
     <row r="332" spans="1:8" ht="30">
-      <c r="A332" s="36" t="s">
+      <c r="A332" s="33" t="s">
         <v>305</v>
       </c>
       <c r="B332" s="26" t="s">
@@ -5229,7 +5702,7 @@
       <c r="D332" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F332" s="37" t="s">
+      <c r="F332" s="34" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5240,7 +5713,7 @@
       <c r="F333" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H333" s="33" t="s">
+      <c r="H333" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5256,10 +5729,10 @@
       <c r="E335" s="5">
         <v>3</v>
       </c>
-      <c r="F335" s="32" t="s">
+      <c r="F335" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G335" s="32" t="s">
+      <c r="G335" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5297,8 +5770,8 @@
       </c>
     </row>
     <row r="340" spans="1:8" ht="30">
-      <c r="A340" s="36" t="s">
-        <v>305</v>
+      <c r="A340" s="37" t="s">
+        <v>315</v>
       </c>
       <c r="B340" s="26" t="s">
         <v>20</v>
@@ -5306,7 +5779,7 @@
       <c r="D340" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F340" s="32" t="s">
+      <c r="F340" s="31" t="s">
         <v>108</v>
       </c>
     </row>
@@ -5317,7 +5790,7 @@
       <c r="F341" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H341" s="33" t="s">
+      <c r="H341" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5333,10 +5806,10 @@
       <c r="E343" s="5">
         <v>3</v>
       </c>
-      <c r="F343" s="32" t="s">
+      <c r="F343" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G343" s="32" t="s">
+      <c r="G343" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5385,8 +5858,8 @@
       </c>
     </row>
     <row r="349" spans="1:8" ht="30">
-      <c r="A349" s="36" t="s">
-        <v>315</v>
+      <c r="A349" s="37" t="s">
+        <v>319</v>
       </c>
       <c r="B349" s="26" t="s">
         <v>20</v>
@@ -5394,7 +5867,7 @@
       <c r="D349" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="F349" s="37" t="s">
+      <c r="F349" s="34" t="s">
         <v>317</v>
       </c>
     </row>
@@ -5405,7 +5878,7 @@
       <c r="F350" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H350" s="33" t="s">
+      <c r="H350" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5421,10 +5894,10 @@
       <c r="E352" s="5">
         <v>3</v>
       </c>
-      <c r="F352" s="32" t="s">
+      <c r="F352" s="31" t="s">
         <v>246</v>
       </c>
-      <c r="G352" s="32" t="s">
+      <c r="G352" s="31" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5462,8 +5935,8 @@
       </c>
     </row>
     <row r="357" spans="1:8" ht="30">
-      <c r="A357" s="36" t="s">
-        <v>319</v>
+      <c r="A357" s="37" t="s">
+        <v>330</v>
       </c>
       <c r="B357" s="26" t="s">
         <v>20</v>
@@ -5482,7 +5955,7 @@
       <c r="F358" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H358" s="33" t="s">
+      <c r="H358" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5517,8 +5990,8 @@
       </c>
     </row>
     <row r="363" spans="1:8" ht="45">
-      <c r="A363" s="36" t="s">
-        <v>330</v>
+      <c r="A363" s="37" t="s">
+        <v>331</v>
       </c>
       <c r="B363" s="26" t="s">
         <v>20</v>
@@ -5537,7 +6010,7 @@
       <c r="F364" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H364" s="33" t="s">
+      <c r="H364" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5583,8 +6056,8 @@
       </c>
     </row>
     <row r="370" spans="1:8" ht="45">
-      <c r="A370" s="36" t="s">
-        <v>331</v>
+      <c r="A370" s="37" t="s">
+        <v>337</v>
       </c>
       <c r="B370" s="26" t="s">
         <v>20</v>
@@ -5603,7 +6076,7 @@
       <c r="F371" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H371" s="33" t="s">
+      <c r="H371" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5660,8 +6133,8 @@
       </c>
     </row>
     <row r="378" spans="1:8" ht="45">
-      <c r="A378" s="36" t="s">
-        <v>337</v>
+      <c r="A378" s="37" t="s">
+        <v>340</v>
       </c>
       <c r="B378" s="26" t="s">
         <v>20</v>
@@ -5680,7 +6153,7 @@
       <c r="F379" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H379" s="33" t="s">
+      <c r="H379" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5704,8 +6177,8 @@
       </c>
     </row>
     <row r="383" spans="1:8" ht="30">
-      <c r="A383" s="36" t="s">
-        <v>340</v>
+      <c r="A383" s="37" t="s">
+        <v>345</v>
       </c>
       <c r="B383" s="26" t="s">
         <v>20</v>
@@ -5724,7 +6197,7 @@
       <c r="F384" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H384" s="33" t="s">
+      <c r="H384" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5759,8 +6232,8 @@
       </c>
     </row>
     <row r="389" spans="1:8" ht="30">
-      <c r="A389" s="36" t="s">
-        <v>345</v>
+      <c r="A389" s="37" t="s">
+        <v>351</v>
       </c>
       <c r="B389" s="26" t="s">
         <v>20</v>
@@ -5779,7 +6252,7 @@
       <c r="F390" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H390" s="33" t="s">
+      <c r="H390" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5814,8 +6287,8 @@
       </c>
     </row>
     <row r="395" spans="1:8" ht="30">
-      <c r="A395" s="36" t="s">
-        <v>351</v>
+      <c r="A395" s="37" t="s">
+        <v>355</v>
       </c>
       <c r="B395" s="26" t="s">
         <v>20</v>
@@ -5834,7 +6307,7 @@
       <c r="F396" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H396" s="33" t="s">
+      <c r="H396" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5858,8 +6331,8 @@
       </c>
     </row>
     <row r="400" spans="1:8" ht="30">
-      <c r="A400" s="36" t="s">
-        <v>355</v>
+      <c r="A400" s="37" t="s">
+        <v>361</v>
       </c>
       <c r="B400" s="26" t="s">
         <v>20</v>
@@ -5878,7 +6351,7 @@
       <c r="F401" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H401" s="33" t="s">
+      <c r="H401" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5913,8 +6386,8 @@
       </c>
     </row>
     <row r="406" spans="1:8" ht="30">
-      <c r="A406" s="36" t="s">
-        <v>361</v>
+      <c r="A406" s="37" t="s">
+        <v>368</v>
       </c>
       <c r="B406" s="26" t="s">
         <v>20</v>
@@ -5933,7 +6406,7 @@
       <c r="F407" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="H407" s="33" t="s">
+      <c r="H407" s="32" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5953,23 +6426,26 @@
         <v>363</v>
       </c>
     </row>
-    <row r="410" spans="1:8">
+    <row r="410" spans="1:8" ht="90">
       <c r="E410" s="5">
         <v>4</v>
       </c>
       <c r="F410" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G410" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="411" spans="1:8">
+      <c r="G410" s="39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" ht="30">
       <c r="E411" s="5">
         <v>5</v>
       </c>
-      <c r="F411" s="3" t="s">
-        <v>365</v>
+      <c r="F411" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="G411" s="39" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -5977,7 +6453,7 @@
         <v>6</v>
       </c>
       <c r="F412" s="3" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -5985,7 +6461,7 @@
         <v>7</v>
       </c>
       <c r="F413" s="3" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -5993,10 +6469,1645 @@
         <v>8</v>
       </c>
       <c r="F414" s="3" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G414" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" ht="30">
+      <c r="A416" s="37" t="s">
+        <v>375</v>
+      </c>
+      <c r="B416" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D416" s="39" t="s">
         <v>369</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8">
+      <c r="E417" s="5">
+        <v>1</v>
+      </c>
+      <c r="F417" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H417" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8">
+      <c r="E418" s="5">
+        <v>2</v>
+      </c>
+      <c r="F418" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8">
+      <c r="E419" s="5">
+        <v>3</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" ht="90">
+      <c r="E420" s="5">
+        <v>4</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G420" s="39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" ht="30">
+      <c r="E421" s="5">
+        <v>5</v>
+      </c>
+      <c r="F421" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="G421" s="39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" ht="30">
+      <c r="E422" s="5">
+        <v>6</v>
+      </c>
+      <c r="F422" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="G422" s="39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" ht="30">
+      <c r="A424" s="37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B424" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D424" s="39" t="s">
+        <v>376</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8">
+      <c r="E425" s="5">
+        <v>1</v>
+      </c>
+      <c r="F425" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H425" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8">
+      <c r="E426" s="5">
+        <v>2</v>
+      </c>
+      <c r="F426" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8">
+      <c r="E427" s="5">
+        <v>3</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" ht="90">
+      <c r="E428" s="5">
+        <v>4</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G428" s="39" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" ht="30">
+      <c r="E429" s="5">
+        <v>5</v>
+      </c>
+      <c r="F429" s="39" t="s">
+        <v>371</v>
+      </c>
+      <c r="G429" s="39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" ht="30">
+      <c r="E430" s="5">
+        <v>6</v>
+      </c>
+      <c r="F430" s="39" t="s">
+        <v>373</v>
+      </c>
+      <c r="G430" s="39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8">
+      <c r="E431" s="5">
+        <v>7</v>
+      </c>
+      <c r="F431" s="39" t="s">
+        <v>377</v>
+      </c>
+      <c r="G431" s="39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" ht="30">
+      <c r="A433" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="B433" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D433" s="39" t="s">
+        <v>382</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8">
+      <c r="E434" s="5">
+        <v>1</v>
+      </c>
+      <c r="F434" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H434" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8">
+      <c r="E435" s="5">
+        <v>2</v>
+      </c>
+      <c r="F435" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" ht="106.5" customHeight="1">
+      <c r="E436" s="5">
+        <v>3</v>
+      </c>
+      <c r="F436" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="G436" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8">
+      <c r="E437" s="5">
+        <v>4</v>
+      </c>
+      <c r="F437" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="E438" s="5">
+        <v>5</v>
+      </c>
+      <c r="F438" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="G438" s="39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" ht="30">
+      <c r="A440" s="37" t="s">
+        <v>387</v>
+      </c>
+      <c r="B440" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D440" s="39" t="s">
+        <v>388</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8">
+      <c r="E441" s="5">
+        <v>1</v>
+      </c>
+      <c r="F441" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H441" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8">
+      <c r="E442" s="5">
+        <v>2</v>
+      </c>
+      <c r="F442" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" ht="121.5" customHeight="1">
+      <c r="E443" s="5">
+        <v>3</v>
+      </c>
+      <c r="F443" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="G443" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8">
+      <c r="E444" s="5">
+        <v>4</v>
+      </c>
+      <c r="F444" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8">
+      <c r="E445" s="5">
+        <v>5</v>
+      </c>
+      <c r="F445" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="G445" s="39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" ht="30">
+      <c r="E446" s="5">
+        <v>6</v>
+      </c>
+      <c r="F446" s="39" t="s">
+        <v>389</v>
+      </c>
+      <c r="G446" s="39" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" ht="30">
+      <c r="A448" s="37" t="s">
+        <v>391</v>
+      </c>
+      <c r="B448" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D448" s="39" t="s">
+        <v>392</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8">
+      <c r="E449" s="5">
+        <v>1</v>
+      </c>
+      <c r="F449" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H449" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8">
+      <c r="E450" s="5">
+        <v>2</v>
+      </c>
+      <c r="F450" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" ht="108" customHeight="1">
+      <c r="E451" s="5">
+        <v>3</v>
+      </c>
+      <c r="F451" s="39" t="s">
+        <v>383</v>
+      </c>
+      <c r="G451" s="39" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8">
+      <c r="E452" s="5">
+        <v>4</v>
+      </c>
+      <c r="F452" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8">
+      <c r="E453" s="5">
+        <v>5</v>
+      </c>
+      <c r="F453" s="39" t="s">
+        <v>385</v>
+      </c>
+      <c r="G453" s="39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" ht="30">
+      <c r="E454" s="5">
+        <v>6</v>
+      </c>
+      <c r="F454" s="39" t="s">
+        <v>393</v>
+      </c>
+      <c r="G454" s="39" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" ht="30">
+      <c r="E455" s="5">
+        <v>7</v>
+      </c>
+      <c r="F455" s="39" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8">
+      <c r="E456" s="5">
+        <v>8</v>
+      </c>
+      <c r="F456" s="39" t="s">
+        <v>396</v>
+      </c>
+      <c r="G456" s="39" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" ht="30">
+      <c r="A458" s="37" t="s">
+        <v>398</v>
+      </c>
+      <c r="B458" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D458" s="39" t="s">
+        <v>399</v>
+      </c>
+      <c r="E458" s="5">
+        <v>1</v>
+      </c>
+      <c r="F458" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H458" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8">
+      <c r="E459" s="5">
+        <v>2</v>
+      </c>
+      <c r="F459" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" ht="30">
+      <c r="E460" s="5">
+        <v>3</v>
+      </c>
+      <c r="F460" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="G460" s="39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" ht="45">
+      <c r="E461" s="38">
+        <v>4</v>
+      </c>
+      <c r="F461" s="39" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8">
+      <c r="E462" s="5">
+        <v>5</v>
+      </c>
+      <c r="F462" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G462" s="39" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" ht="30">
+      <c r="A465" s="37" t="s">
+        <v>404</v>
+      </c>
+      <c r="B465" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D465" s="39" t="s">
+        <v>405</v>
+      </c>
+      <c r="E465" s="5">
+        <v>1</v>
+      </c>
+      <c r="F465" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H465" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8">
+      <c r="E466" s="5">
+        <v>2</v>
+      </c>
+      <c r="F466" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" ht="30">
+      <c r="E467" s="5">
+        <v>3</v>
+      </c>
+      <c r="F467" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="G467" s="39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" ht="30">
+      <c r="E468" s="38">
+        <v>4</v>
+      </c>
+      <c r="F468" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="G468" s="39" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" ht="30">
+      <c r="E469" s="5">
+        <v>5</v>
+      </c>
+      <c r="F469" s="39" t="s">
+        <v>407</v>
+      </c>
+      <c r="G469" s="39" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" ht="30">
+      <c r="A471" s="37" t="s">
+        <v>410</v>
+      </c>
+      <c r="B471" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D471" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="E471" s="5">
+        <v>1</v>
+      </c>
+      <c r="F471" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H471" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8">
+      <c r="E472" s="5">
+        <v>2</v>
+      </c>
+      <c r="F472" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" ht="30">
+      <c r="E473" s="5">
+        <v>3</v>
+      </c>
+      <c r="F473" s="39" t="s">
+        <v>400</v>
+      </c>
+      <c r="G473" s="39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" ht="30">
+      <c r="E474" s="38">
+        <v>4</v>
+      </c>
+      <c r="F474" s="39" t="s">
+        <v>406</v>
+      </c>
+      <c r="G474" s="39" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8">
+      <c r="E475" s="5">
+        <v>6</v>
+      </c>
+      <c r="F475" s="39" t="s">
+        <v>412</v>
+      </c>
+      <c r="G475" s="39" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8">
+      <c r="E476" s="5">
+        <v>7</v>
+      </c>
+      <c r="F476" s="39" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8">
+      <c r="E477" s="5">
+        <v>8</v>
+      </c>
+      <c r="F477" s="39" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8">
+      <c r="E478" s="5">
+        <v>9</v>
+      </c>
+      <c r="F478" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="G478" s="39" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8">
+      <c r="E479" s="5">
+        <v>10</v>
+      </c>
+      <c r="F479" s="39" t="s">
+        <v>416</v>
+      </c>
+      <c r="G479" s="39" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" ht="30">
+      <c r="A481" s="37" t="s">
+        <v>418</v>
+      </c>
+      <c r="B481" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D481" s="39" t="s">
+        <v>425</v>
+      </c>
+      <c r="E481" s="5">
+        <v>1</v>
+      </c>
+      <c r="F481" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H481" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8">
+      <c r="E482" s="5">
+        <v>2</v>
+      </c>
+      <c r="F482" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" ht="30">
+      <c r="E483" s="5">
+        <v>3</v>
+      </c>
+      <c r="F483" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="G483" s="39" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" ht="30">
+      <c r="E484" s="5">
+        <v>4</v>
+      </c>
+      <c r="F484" s="39" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8">
+      <c r="E485" s="5">
+        <v>5</v>
+      </c>
+      <c r="F485" s="39" t="s">
+        <v>422</v>
+      </c>
+      <c r="G485" s="39" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" ht="30">
+      <c r="A487" s="37" t="s">
+        <v>424</v>
+      </c>
+      <c r="B487" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D487" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="E487" s="5">
+        <v>1</v>
+      </c>
+      <c r="F487" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H487" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8">
+      <c r="E488" s="5">
+        <v>2</v>
+      </c>
+      <c r="F488" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" ht="30">
+      <c r="E489" s="5">
+        <v>3</v>
+      </c>
+      <c r="F489" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="G489" s="39" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" ht="45">
+      <c r="E490" s="5">
+        <v>4</v>
+      </c>
+      <c r="F490" s="39" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8">
+      <c r="E491" s="5">
+        <v>5</v>
+      </c>
+      <c r="F491" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G491" s="39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8">
+      <c r="E492" s="5">
+        <v>6</v>
+      </c>
+      <c r="F492" s="39" t="s">
+        <v>429</v>
+      </c>
+      <c r="G492" s="39" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8">
+      <c r="E493" s="5">
+        <v>7</v>
+      </c>
+      <c r="F493" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="G493" s="39" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8">
+      <c r="E494" s="5">
+        <v>8</v>
+      </c>
+      <c r="F494" s="39" t="s">
+        <v>433</v>
+      </c>
+      <c r="G494" s="39" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8">
+      <c r="E495" s="5">
+        <v>9</v>
+      </c>
+      <c r="F495" s="39" t="s">
+        <v>435</v>
+      </c>
+      <c r="G495" s="39" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8">
+      <c r="E496" s="5">
+        <v>10</v>
+      </c>
+      <c r="F496" s="39" t="s">
+        <v>437</v>
+      </c>
+      <c r="G496" s="39" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8">
+      <c r="E497" s="5">
+        <v>11</v>
+      </c>
+      <c r="F497" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="G497" s="39" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="E498" s="5">
+        <v>12</v>
+      </c>
+      <c r="F498" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="G498" s="39" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" ht="30">
+      <c r="A500" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="B500" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D500" s="39" t="s">
+        <v>445</v>
+      </c>
+      <c r="E500" s="5">
+        <v>1</v>
+      </c>
+      <c r="F500" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H500" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8">
+      <c r="E501" s="5">
+        <v>2</v>
+      </c>
+      <c r="F501" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" ht="30">
+      <c r="E502" s="5">
+        <v>3</v>
+      </c>
+      <c r="F502" s="39" t="s">
+        <v>419</v>
+      </c>
+      <c r="G502" s="39" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" ht="45">
+      <c r="E503" s="5">
+        <v>4</v>
+      </c>
+      <c r="F503" s="39" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8">
+      <c r="E504" s="5">
+        <v>5</v>
+      </c>
+      <c r="F504" s="39" t="s">
+        <v>427</v>
+      </c>
+      <c r="G504" s="39" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" ht="60">
+      <c r="E505" s="5">
+        <v>6</v>
+      </c>
+      <c r="F505" s="39" t="s">
+        <v>446</v>
+      </c>
+      <c r="G505" s="39" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8">
+      <c r="E506" s="5">
+        <v>7</v>
+      </c>
+      <c r="F506" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="G506" s="39" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" ht="45">
+      <c r="A508" s="37" t="s">
+        <v>453</v>
+      </c>
+      <c r="B508" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D508" s="39" t="s">
+        <v>457</v>
+      </c>
+      <c r="E508" s="5">
+        <v>1</v>
+      </c>
+      <c r="F508" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H508" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8">
+      <c r="E509" s="5">
+        <v>2</v>
+      </c>
+      <c r="F509" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8">
+      <c r="E510" s="5">
+        <v>3</v>
+      </c>
+      <c r="F510" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G510" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" ht="88.5" customHeight="1">
+      <c r="E511" s="5">
+        <v>4</v>
+      </c>
+      <c r="F511" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G511" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" ht="30">
+      <c r="A513" s="37" t="s">
+        <v>460</v>
+      </c>
+      <c r="B513" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D513" s="39" t="s">
+        <v>465</v>
+      </c>
+      <c r="F513" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8">
+      <c r="E514" s="5">
+        <v>1</v>
+      </c>
+      <c r="F514" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H514" s="32" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8">
+      <c r="E515" s="5">
+        <v>2</v>
+      </c>
+      <c r="F515" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8">
+      <c r="E516" s="5">
+        <v>3</v>
+      </c>
+      <c r="F516" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G516" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" ht="92.25" customHeight="1">
+      <c r="E517" s="5">
+        <v>4</v>
+      </c>
+      <c r="F517" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G517" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8">
+      <c r="E518" s="5">
+        <v>5</v>
+      </c>
+      <c r="F518" s="39" t="s">
+        <v>461</v>
+      </c>
+      <c r="G518" s="39" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8">
+      <c r="E519" s="5">
+        <v>6</v>
+      </c>
+      <c r="F519" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="G519" s="39" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" ht="30">
+      <c r="A521" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="B521" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D521" s="39" t="s">
+        <v>466</v>
+      </c>
+      <c r="F521" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8">
+      <c r="E522" s="5">
+        <v>1</v>
+      </c>
+      <c r="F522" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8">
+      <c r="E523" s="5">
+        <v>2</v>
+      </c>
+      <c r="F523" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8">
+      <c r="E524" s="5">
+        <v>3</v>
+      </c>
+      <c r="F524" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G524" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" ht="88.5" customHeight="1">
+      <c r="E525" s="5">
+        <v>4</v>
+      </c>
+      <c r="F525" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G525" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8">
+      <c r="E526" s="5">
+        <v>5</v>
+      </c>
+      <c r="F526" s="39" t="s">
+        <v>467</v>
+      </c>
+      <c r="G526" s="39" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" ht="30">
+      <c r="A528" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="B528" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D528" s="39" t="s">
+        <v>471</v>
+      </c>
+      <c r="F528" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7">
+      <c r="E529" s="5">
+        <v>1</v>
+      </c>
+      <c r="F529" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7">
+      <c r="E530" s="5">
+        <v>2</v>
+      </c>
+      <c r="F530" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7">
+      <c r="E531" s="5">
+        <v>3</v>
+      </c>
+      <c r="F531" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G531" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" ht="84" customHeight="1">
+      <c r="E532" s="5">
+        <v>4</v>
+      </c>
+      <c r="F532" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G532" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" ht="30">
+      <c r="E533" s="5">
+        <v>5</v>
+      </c>
+      <c r="F533" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="G533" s="39" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7">
+      <c r="E534" s="5">
+        <v>6</v>
+      </c>
+      <c r="F534" s="39" t="s">
+        <v>474</v>
+      </c>
+      <c r="G534" s="39" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7">
+      <c r="E535" s="5">
+        <v>7</v>
+      </c>
+      <c r="F535" s="39" t="s">
+        <v>477</v>
+      </c>
+      <c r="G535" s="39" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" ht="30">
+      <c r="A537" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="B537" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D537" s="39" t="s">
+        <v>479</v>
+      </c>
+      <c r="F537" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7">
+      <c r="E538" s="5">
+        <v>1</v>
+      </c>
+      <c r="F538" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7">
+      <c r="E539" s="5">
+        <v>2</v>
+      </c>
+      <c r="F539" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7">
+      <c r="E540" s="5">
+        <v>3</v>
+      </c>
+      <c r="F540" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G540" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" ht="68.25" customHeight="1">
+      <c r="E541" s="5">
+        <v>4</v>
+      </c>
+      <c r="F541" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G541" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" ht="30">
+      <c r="E542" s="5">
+        <v>5</v>
+      </c>
+      <c r="F542" s="39" t="s">
+        <v>480</v>
+      </c>
+      <c r="G542" s="39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="30">
+      <c r="A544" s="37" t="s">
+        <v>482</v>
+      </c>
+      <c r="B544" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D544" s="39" t="s">
+        <v>483</v>
+      </c>
+      <c r="F544" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7">
+      <c r="E545" s="5">
+        <v>1</v>
+      </c>
+      <c r="F545" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7">
+      <c r="E546" s="5">
+        <v>2</v>
+      </c>
+      <c r="F546" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7">
+      <c r="E547" s="5">
+        <v>3</v>
+      </c>
+      <c r="F547" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G547" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" ht="69" customHeight="1">
+      <c r="E548" s="5">
+        <v>4</v>
+      </c>
+      <c r="F548" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G548" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" ht="30">
+      <c r="E549" s="5">
+        <v>5</v>
+      </c>
+      <c r="F549" s="39" t="s">
+        <v>484</v>
+      </c>
+      <c r="G549" s="39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="30">
+      <c r="A551" s="37" t="s">
+        <v>487</v>
+      </c>
+      <c r="B551" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D551" s="39" t="s">
+        <v>486</v>
+      </c>
+      <c r="F551" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7">
+      <c r="E552" s="5">
+        <v>1</v>
+      </c>
+      <c r="F552" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7">
+      <c r="E553" s="5">
+        <v>2</v>
+      </c>
+      <c r="F553" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7">
+      <c r="E554" s="5">
+        <v>3</v>
+      </c>
+      <c r="F554" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G554" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="62.25" customHeight="1">
+      <c r="E555" s="5">
+        <v>4</v>
+      </c>
+      <c r="F555" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G555" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="21.75" customHeight="1">
+      <c r="E556" s="5">
+        <v>5</v>
+      </c>
+      <c r="F556" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="G556" s="39"/>
+    </row>
+    <row r="557" spans="1:7" ht="30">
+      <c r="E557" s="5">
+        <v>5</v>
+      </c>
+      <c r="F557" s="39" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7">
+      <c r="E558" s="5">
+        <v>6</v>
+      </c>
+      <c r="F558" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="G558" s="39" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" ht="30">
+      <c r="A560" s="37" t="s">
+        <v>491</v>
+      </c>
+      <c r="B560" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D560" s="39" t="s">
+        <v>492</v>
+      </c>
+      <c r="F560" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7">
+      <c r="E561" s="5">
+        <v>1</v>
+      </c>
+      <c r="F561" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7">
+      <c r="E562" s="5">
+        <v>2</v>
+      </c>
+      <c r="F562" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7">
+      <c r="E563" s="5">
+        <v>3</v>
+      </c>
+      <c r="F563" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G563" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" ht="70.5" customHeight="1">
+      <c r="E564" s="5">
+        <v>4</v>
+      </c>
+      <c r="F564" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G564" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" ht="30">
+      <c r="E565" s="5">
+        <v>5</v>
+      </c>
+      <c r="F565" s="39" t="s">
+        <v>494</v>
+      </c>
+      <c r="G565" s="39" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" ht="30">
+      <c r="A567" s="37" t="s">
+        <v>499</v>
+      </c>
+      <c r="B567" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D567" s="39" t="s">
+        <v>496</v>
+      </c>
+      <c r="F567" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7">
+      <c r="E568" s="5">
+        <v>1</v>
+      </c>
+      <c r="F568" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7">
+      <c r="E569" s="5">
+        <v>2</v>
+      </c>
+      <c r="F569" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7">
+      <c r="E570" s="5">
+        <v>3</v>
+      </c>
+      <c r="F570" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G570" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" ht="69" customHeight="1">
+      <c r="E571" s="5">
+        <v>4</v>
+      </c>
+      <c r="F571" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G571" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7">
+      <c r="E572" s="5">
+        <v>5</v>
+      </c>
+      <c r="F572" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="G572" s="39" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" ht="30">
+      <c r="A574" s="37" t="s">
+        <v>500</v>
+      </c>
+      <c r="B574" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D574" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="F574" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7">
+      <c r="E575" s="5">
+        <v>1</v>
+      </c>
+      <c r="F575" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7">
+      <c r="E576" s="5">
+        <v>2</v>
+      </c>
+      <c r="F576" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7">
+      <c r="E577" s="5">
+        <v>3</v>
+      </c>
+      <c r="F577" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G577" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" ht="76.5" customHeight="1">
+      <c r="E578" s="5">
+        <v>4</v>
+      </c>
+      <c r="F578" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G578" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7">
+      <c r="E579" s="5">
+        <v>5</v>
+      </c>
+      <c r="F579" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="G579" s="39" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7">
+      <c r="E580" s="5">
+        <v>6</v>
+      </c>
+      <c r="F580" s="39" t="s">
+        <v>504</v>
+      </c>
+      <c r="G580" s="39" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" ht="30">
+      <c r="A582" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="B582" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D582" s="39" t="s">
+        <v>507</v>
+      </c>
+      <c r="F582" s="39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7">
+      <c r="E583" s="5">
+        <v>1</v>
+      </c>
+      <c r="F583" s="26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7">
+      <c r="E584" s="5">
+        <v>2</v>
+      </c>
+      <c r="F584" s="39" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7">
+      <c r="E585" s="5">
+        <v>3</v>
+      </c>
+      <c r="F585" s="39" t="s">
+        <v>455</v>
+      </c>
+      <c r="G585" s="39" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" ht="75.75" customHeight="1">
+      <c r="E586" s="5">
+        <v>4</v>
+      </c>
+      <c r="F586" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="G586" s="39" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7">
+      <c r="E587" s="5">
+        <v>5</v>
+      </c>
+      <c r="F587" s="39" t="s">
+        <v>508</v>
+      </c>
+      <c r="G587" s="39" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" ht="30">
+      <c r="E588" s="5">
+        <v>6</v>
+      </c>
+      <c r="F588" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="G588" s="39" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>
@@ -6005,16 +8116,16 @@
     <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:C40 C43:C49 C52:C109 C112 C121">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C35:C40 C121 C112 C52:C109 C43:C49">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Parvathy P, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41:C42 C50:C51 C2:C34 J2:J11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C41:C42 J2:J11 C2:C34 C50:C51">
       <formula1>"Nithya VS, Poonima John, Prapancha, Preethi Pathrose, Semin Das, Sangeetha, Rijo J Patric"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J12:J67">
       <formula1>"Leona, Parvathy, Raziya, Rijo"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 B10:B11 B2:B4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B8 B2:B4 B10:B11">
       <formula1>"CAS/ Appointment, Out Patient, Care Desk, EMR, Lab &amp; General Billing, Pharmacy Billing, Lab Results, Radiology, Insurance Desk, Casualty, MRD, In Patient, Nursing Station, Theatre, Indent, Store Management"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K113">
@@ -6060,8 +8171,54 @@
     <hyperlink ref="H396" r:id="rId36"/>
     <hyperlink ref="H401" r:id="rId37"/>
     <hyperlink ref="H407" r:id="rId38"/>
+    <hyperlink ref="H417" r:id="rId39"/>
+    <hyperlink ref="H425" r:id="rId40"/>
+    <hyperlink ref="H434" r:id="rId41"/>
+    <hyperlink ref="H441" r:id="rId42"/>
+    <hyperlink ref="H449" r:id="rId43"/>
+    <hyperlink ref="H458" r:id="rId44"/>
+    <hyperlink ref="H465" r:id="rId45"/>
+    <hyperlink ref="H471" r:id="rId46"/>
+    <hyperlink ref="H481" r:id="rId47"/>
+    <hyperlink ref="H487" r:id="rId48"/>
+    <hyperlink ref="H500" r:id="rId49"/>
+    <hyperlink ref="H508" r:id="rId50"/>
+    <hyperlink ref="H514" r:id="rId51"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId52"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="40" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="40" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="40" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>